--- a/Annotations/Old/VanityFair.xlsx
+++ b/Annotations/Old/VanityFair.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="VanityFairV2" sheetId="1" r:id="rId1"/>
@@ -1788,14 +1788,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P256"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.5546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="43.5546875" style="2" customWidth="1"/>
@@ -1857,7 +1858,7 @@
     <row r="2" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.63180615086985303</v>
+        <v>6.9584624394915195E-2</v>
       </c>
       <c r="B2" s="2">
         <v>199</v>
@@ -1884,7 +1885,7 @@
     <row r="3" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5102044280225009E-2</v>
+        <v>0.38509727915426561</v>
       </c>
       <c r="B3" s="2">
         <v>96</v>
@@ -1905,7 +1906,7 @@
     <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8431879172774575E-2</v>
+        <v>0.61566361042731566</v>
       </c>
       <c r="B4" s="2">
         <v>43</v>
@@ -1935,7 +1936,7 @@
     <row r="5" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88620711292769205</v>
+        <v>0.33491282229379526</v>
       </c>
       <c r="B5" s="2">
         <v>153</v>
@@ -1962,7 +1963,7 @@
     <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.651809577999753E-2</v>
+        <v>0.60740898058145232</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -1986,7 +1987,7 @@
     <row r="7" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6761785902764408E-2</v>
+        <v>0.33392406558986909</v>
       </c>
       <c r="B7" s="2">
         <v>196</v>
@@ -2010,7 +2011,7 @@
     <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5943953089334983E-2</v>
+        <v>3.1938163264578545E-2</v>
       </c>
       <c r="B8" s="2">
         <v>147</v>
@@ -2034,7 +2035,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.10158019157153E-2</v>
+        <v>0.42515884301718365</v>
       </c>
       <c r="B9" s="2">
         <v>193</v>
@@ -2061,7 +2062,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16026883564769479</v>
+        <v>0.12582473734933919</v>
       </c>
       <c r="B10" s="2">
         <v>225</v>
@@ -2082,7 +2083,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7484562524063928</v>
+        <v>0.63886742206861702</v>
       </c>
       <c r="B11" s="2">
         <v>158</v>
@@ -2109,7 +2110,7 @@
     <row r="12" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21367321183337085</v>
+        <v>9.7745015368395638E-2</v>
       </c>
       <c r="B12" s="2">
         <v>97</v>
@@ -2139,7 +2140,7 @@
     <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4352965857309814</v>
+        <v>0.86759110961643926</v>
       </c>
       <c r="B13" s="2">
         <v>111</v>
@@ -2166,7 +2167,7 @@
     <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31119002301510112</v>
+        <v>0.29713296480745666</v>
       </c>
       <c r="B14" s="2">
         <v>9</v>
@@ -2193,7 +2194,7 @@
     <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77068431749127031</v>
+        <v>0.3511267410026383</v>
       </c>
       <c r="B15" s="2">
         <v>103</v>
@@ -2220,7 +2221,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45876904797590146</v>
+        <v>0.22482266340464874</v>
       </c>
       <c r="B16" s="2">
         <v>72</v>
@@ -2241,7 +2242,7 @@
     <row r="17" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60134697892198463</v>
+        <v>0.88080455496708865</v>
       </c>
       <c r="B17" s="2">
         <v>161</v>
@@ -2271,7 +2272,7 @@
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36285191949877404</v>
+        <v>0.74211413297526918</v>
       </c>
       <c r="B18" s="2">
         <v>30</v>
@@ -2295,7 +2296,7 @@
     <row r="19" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86636725199779785</v>
+        <v>0.67188780602333664</v>
       </c>
       <c r="B19" s="2">
         <v>98</v>
@@ -2322,7 +2323,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73225787644427787</v>
+        <v>0.34838289650757437</v>
       </c>
       <c r="B20" s="2">
         <v>190</v>
@@ -2343,7 +2344,7 @@
     <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5161706062058431</v>
+        <v>0.58279874108281249</v>
       </c>
       <c r="B21" s="2">
         <v>197</v>
@@ -2367,7 +2368,7 @@
     <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83673794479589236</v>
+        <v>0.99579569046901883</v>
       </c>
       <c r="B22" s="2">
         <v>39</v>
@@ -2391,7 +2392,7 @@
     <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47734694935849553</v>
+        <v>0.82027497048672504</v>
       </c>
       <c r="B23" s="2">
         <v>10</v>
@@ -2421,7 +2422,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9746254991982366</v>
+        <v>0.97699154446553105</v>
       </c>
       <c r="B24" s="2">
         <v>223</v>
@@ -2448,7 +2449,7 @@
     <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78995379349050421</v>
+        <v>0.1232892439146509</v>
       </c>
       <c r="B25" s="2">
         <v>194</v>
@@ -2475,7 +2476,7 @@
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19821647525828856</v>
+        <v>0.55028729953851196</v>
       </c>
       <c r="B26" s="2">
         <v>32</v>
@@ -2499,7 +2500,7 @@
     <row r="27" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18085822103122895</v>
+        <v>0.11990868046385195</v>
       </c>
       <c r="B27" s="2">
         <v>232</v>
@@ -2526,7 +2527,7 @@
     <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1521326144443056E-2</v>
+        <v>0.69438016812923065</v>
       </c>
       <c r="B28" s="2">
         <v>203</v>
@@ -2547,7 +2548,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4363191374610218E-2</v>
+        <v>0.54648018385701536</v>
       </c>
       <c r="B29" s="2">
         <v>174</v>
@@ -2571,7 +2572,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6915523146610441E-2</v>
+        <v>0.16735093616482766</v>
       </c>
       <c r="B30" s="2">
         <v>26</v>
@@ -2598,7 +2599,7 @@
     <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18057244517404281</v>
+        <v>0.10294239581492048</v>
       </c>
       <c r="B31" s="2">
         <v>245</v>
@@ -2625,7 +2626,7 @@
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46482709971456682</v>
+        <v>0.36560725041302045</v>
       </c>
       <c r="B32" s="2">
         <v>89</v>
@@ -2649,7 +2650,7 @@
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18425516313175638</v>
+        <v>0.70817138825120218</v>
       </c>
       <c r="B33" s="2">
         <v>107</v>
@@ -2676,7 +2677,7 @@
     <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80074143760746364</v>
+        <v>0.806797594641536</v>
       </c>
       <c r="B34" s="2">
         <v>25</v>
@@ -2703,7 +2704,7 @@
     <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58358979129971333</v>
+        <v>0.21026767086340814</v>
       </c>
       <c r="B35" s="2">
         <v>102</v>
@@ -2730,7 +2731,7 @@
     <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72509563785495679</v>
+        <v>0.5356216769585822</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -2754,7 +2755,7 @@
     <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82989533707985519</v>
+        <v>0.88153088449082395</v>
       </c>
       <c r="B37" s="2">
         <v>74</v>
@@ -2781,7 +2782,7 @@
     <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77524760406069737</v>
+        <v>0.71658865880228784</v>
       </c>
       <c r="B38" s="2">
         <v>173</v>
@@ -2805,7 +2806,7 @@
     <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62580527927226015</v>
+        <v>0.40785998567168746</v>
       </c>
       <c r="B39" s="2">
         <v>44</v>
@@ -2829,7 +2830,7 @@
     <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42600869024904331</v>
+        <v>0.52449325553610593</v>
       </c>
       <c r="B40" s="2">
         <v>128</v>
@@ -2853,7 +2854,7 @@
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18450865793990889</v>
+        <v>0.86813590502847093</v>
       </c>
       <c r="B41" s="2">
         <v>236</v>
@@ -2880,7 +2881,7 @@
     <row r="42" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85846760869339722</v>
+        <v>0.84904958945011955</v>
       </c>
       <c r="B42" s="2">
         <v>19</v>
@@ -2901,7 +2902,7 @@
     <row r="43" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5489256189602636E-2</v>
+        <v>0.88320144270099143</v>
       </c>
       <c r="B43" s="2">
         <v>69</v>
@@ -2928,7 +2929,7 @@
     <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68035735613497683</v>
+        <v>0.89073430260308628</v>
       </c>
       <c r="B44" s="2">
         <v>100</v>
@@ -2958,7 +2959,7 @@
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31279907203247281</v>
+        <v>0.62015542205199781</v>
       </c>
       <c r="B45" s="2">
         <v>237</v>
@@ -2982,7 +2983,7 @@
     <row r="46" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99590673675795049</v>
+        <v>0.73337675268544134</v>
       </c>
       <c r="B46" s="2">
         <v>46</v>
@@ -3012,7 +3013,7 @@
     <row r="47" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59423641624937618</v>
+        <v>0.6475670813086476</v>
       </c>
       <c r="B47" s="2">
         <v>167</v>
@@ -3036,7 +3037,7 @@
     <row r="48" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74309988503594293</v>
+        <v>0.6313907328854037</v>
       </c>
       <c r="B48" s="2">
         <v>212</v>
@@ -3063,7 +3064,7 @@
     <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65033183020985008</v>
+        <v>0.93583576133743274</v>
       </c>
       <c r="B49" s="2">
         <v>244</v>
@@ -3087,7 +3088,7 @@
     <row r="50" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53255878916466215</v>
+        <v>0.30894537448225468</v>
       </c>
       <c r="B50" s="2">
         <v>217</v>
@@ -3114,7 +3115,7 @@
     <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7642077130776822</v>
+        <v>1.3589185575738072E-2</v>
       </c>
       <c r="B51" s="2">
         <v>185</v>
@@ -3138,7 +3139,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19003794465464552</v>
+        <v>1.939332013084849E-2</v>
       </c>
       <c r="B52" s="2">
         <v>254</v>
@@ -3159,7 +3160,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14713490546475416</v>
+        <v>0.28469155568153059</v>
       </c>
       <c r="B53" s="2">
         <v>109</v>
@@ -3183,7 +3184,7 @@
     <row r="54" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4870192407440501E-2</v>
+        <v>0.54730636792494092</v>
       </c>
       <c r="B54" s="2">
         <v>16</v>
@@ -3210,7 +3211,7 @@
     <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77878735611490812</v>
+        <v>0.98453695380118011</v>
       </c>
       <c r="B55" s="2">
         <v>117</v>
@@ -3240,7 +3241,7 @@
     <row r="56" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74382564655730699</v>
+        <v>0.69924363574654924</v>
       </c>
       <c r="B56" s="2">
         <v>136</v>
@@ -3264,7 +3265,7 @@
     <row r="57" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32835248633046554</v>
+        <v>0.38754809422704783</v>
       </c>
       <c r="B57" s="2">
         <v>57</v>
@@ -3294,7 +3295,7 @@
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49852634491273051</v>
+        <v>0.54958071064192615</v>
       </c>
       <c r="B58" s="2">
         <v>191</v>
@@ -3318,7 +3319,7 @@
     <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45924954326450362</v>
+        <v>8.9496214865936397E-2</v>
       </c>
       <c r="B59" s="2">
         <v>13</v>
@@ -3345,7 +3346,7 @@
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3003087068731136E-2</v>
+        <v>0.55113290378701318</v>
       </c>
       <c r="B60" s="2">
         <v>138</v>
@@ -3366,7 +3367,7 @@
     <row r="61" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4658046408352674</v>
+        <v>0.38167730100809338</v>
       </c>
       <c r="B61" s="2">
         <v>40</v>
@@ -3396,7 +3397,7 @@
     <row r="62" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98413091015153875</v>
+        <v>7.3869093062215008E-2</v>
       </c>
       <c r="B62" s="2">
         <v>78</v>
@@ -3420,7 +3421,7 @@
     <row r="63" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69595064972885134</v>
+        <v>0.69064942001180363</v>
       </c>
       <c r="B63" s="2">
         <v>144</v>
@@ -3444,7 +3445,7 @@
     <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55374936699621569</v>
+        <v>0.62836141094411346</v>
       </c>
       <c r="B64" s="2">
         <v>49</v>
@@ -3468,7 +3469,7 @@
     <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92358198825668847</v>
+        <v>0.68923293503704841</v>
       </c>
       <c r="B65" s="2">
         <v>35</v>
@@ -3492,7 +3493,7 @@
     <row r="66" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.72413467895269767</v>
+        <v>0.75393418449731242</v>
       </c>
       <c r="B66" s="2">
         <v>17</v>
@@ -3516,7 +3517,7 @@
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40275483106198251</v>
+        <v>0.33902672876885764</v>
       </c>
       <c r="B67" s="2">
         <v>238</v>
@@ -3537,7 +3538,7 @@
     <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2960591315386617</v>
+        <v>0.32417903589046881</v>
       </c>
       <c r="B68" s="2">
         <v>33</v>
@@ -3561,7 +3562,7 @@
     <row r="69" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56869186479845335</v>
+        <v>0.65064356631354647</v>
       </c>
       <c r="B69" s="2">
         <v>140</v>
@@ -3597,7 +3598,7 @@
     <row r="70" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31180042712751388</v>
+        <v>0.55622752487310412</v>
       </c>
       <c r="B70" s="2">
         <v>91</v>
@@ -3618,7 +3619,7 @@
     <row r="71" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12475820461797138</v>
+        <v>0.40227330500531611</v>
       </c>
       <c r="B71" s="2">
         <v>18</v>
@@ -3642,7 +3643,7 @@
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64163952062968876</v>
+        <v>0.80465661224133822</v>
       </c>
       <c r="B72" s="2">
         <v>233</v>
@@ -3666,7 +3667,7 @@
     <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54949009617198452</v>
+        <v>0.85233633970821665</v>
       </c>
       <c r="B73" s="2">
         <v>148</v>
@@ -3690,7 +3691,7 @@
     <row r="74" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61332469652607424</v>
+        <v>0.10561230155356904</v>
       </c>
       <c r="B74" s="2">
         <v>202</v>
@@ -3714,7 +3715,7 @@
     <row r="75" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19287339884608568</v>
+        <v>0.79525824539075096</v>
       </c>
       <c r="B75" s="2">
         <v>210</v>
@@ -3741,7 +3742,7 @@
     <row r="76" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98245878874614589</v>
+        <v>0.64285742175113558</v>
       </c>
       <c r="B76" s="2">
         <v>68</v>
@@ -3768,7 +3769,7 @@
     <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49605138885901223</v>
+        <v>0.11875397162950885</v>
       </c>
       <c r="B77" s="2">
         <v>222</v>
@@ -3789,7 +3790,7 @@
     <row r="78" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35251399149718576</v>
+        <v>0.12312334229430466</v>
       </c>
       <c r="B78" s="2">
         <v>93</v>
@@ -3813,7 +3814,7 @@
     <row r="79" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30766581801687265</v>
+        <v>0.75790246622847923</v>
       </c>
       <c r="B79" s="2">
         <v>184</v>
@@ -3837,7 +3838,7 @@
     <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41404635029620784</v>
+        <v>0.57246774748271023</v>
       </c>
       <c r="B80" s="2">
         <v>110</v>
@@ -3861,7 +3862,7 @@
     <row r="81" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27834156887432382</v>
+        <v>0.61947385020772716</v>
       </c>
       <c r="B81" s="2">
         <v>240</v>
@@ -3888,7 +3889,7 @@
     <row r="82" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11936711962757285</v>
+        <v>0.1827998691590248</v>
       </c>
       <c r="B82" s="2">
         <v>61</v>
@@ -3912,7 +3913,7 @@
     <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97025948011729402</v>
+        <v>0.82731116274453564</v>
       </c>
       <c r="B83" s="2">
         <v>73</v>
@@ -3942,7 +3943,7 @@
     <row r="84" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66538472766492918</v>
+        <v>0.99294061127715816</v>
       </c>
       <c r="B84" s="2">
         <v>205</v>
@@ -3963,7 +3964,7 @@
     <row r="85" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1023802546121223</v>
+        <v>0.52220323775079025</v>
       </c>
       <c r="B85" s="2">
         <v>29</v>
@@ -3987,7 +3988,7 @@
     <row r="86" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8842752390853708E-2</v>
+        <v>0.85942923792140991</v>
       </c>
       <c r="B86" s="2">
         <v>51</v>
@@ -4011,7 +4012,7 @@
     <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24069983488747471</v>
+        <v>0.99829999689822357</v>
       </c>
       <c r="B87" s="2">
         <v>95</v>
@@ -4032,7 +4033,7 @@
     <row r="88" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40727154748143601</v>
+        <v>0.51654537764386299</v>
       </c>
       <c r="B88" s="2">
         <v>247</v>
@@ -4056,7 +4057,7 @@
     <row r="89" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35208828740092679</v>
+        <v>0.53509900528605248</v>
       </c>
       <c r="B89" s="2">
         <v>180</v>
@@ -4080,7 +4081,7 @@
     <row r="90" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38917874957395238</v>
+        <v>0.47867805654595752</v>
       </c>
       <c r="B90" s="2">
         <v>169</v>
@@ -4104,7 +4105,7 @@
     <row r="91" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87686653439665618</v>
+        <v>0.24910160159886263</v>
       </c>
       <c r="B91" s="2">
         <v>54</v>
@@ -4128,7 +4129,7 @@
     <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84895674600878046</v>
+        <v>0.97722546671671329</v>
       </c>
       <c r="B92" s="2">
         <v>221</v>
@@ -4152,7 +4153,7 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17436638032352458</v>
+        <v>0.51343270160470134</v>
       </c>
       <c r="B93" s="2">
         <v>115</v>
@@ -4173,7 +4174,7 @@
     <row r="94" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97583084411196475</v>
+        <v>0.65624839103444899</v>
       </c>
       <c r="B94" s="2">
         <v>85</v>
@@ -4200,7 +4201,7 @@
     <row r="95" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90789289864427569</v>
+        <v>0.6915099291784752</v>
       </c>
       <c r="B95" s="2">
         <v>162</v>
@@ -4227,7 +4228,7 @@
     <row r="96" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3320731474791319E-2</v>
+        <v>0.36197066979732728</v>
       </c>
       <c r="B96" s="2">
         <v>181</v>
@@ -4254,7 +4255,7 @@
     <row r="97" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14113834476669818</v>
+        <v>0.60439602400814996</v>
       </c>
       <c r="B97" s="2">
         <v>243</v>
@@ -4278,7 +4279,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53501879590500856</v>
+        <v>0.74608988626543171</v>
       </c>
       <c r="B98" s="2">
         <v>226</v>
@@ -4305,7 +4306,7 @@
     <row r="99" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59671142435726565</v>
+        <v>0.18264293060468606</v>
       </c>
       <c r="B99" s="2">
         <v>22</v>
@@ -4329,7 +4330,7 @@
     <row r="100" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24284957075528057</v>
+        <v>0.6885777754117991</v>
       </c>
       <c r="B100" s="2">
         <v>220</v>
@@ -4350,7 +4351,7 @@
     <row r="101" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52117359165827359</v>
+        <v>0.81648396207016571</v>
       </c>
       <c r="B101" s="2">
         <v>101</v>
@@ -4374,7 +4375,7 @@
     <row r="102" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32641531960382142</v>
+        <v>0.10056459122377215</v>
       </c>
       <c r="B102" s="2">
         <v>14</v>
@@ -4401,7 +4402,7 @@
     <row r="103" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21639381285204973</v>
+        <v>0.1139386286734192</v>
       </c>
       <c r="B103" s="2">
         <v>149</v>
@@ -4428,7 +4429,7 @@
     <row r="104" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89544691468053339</v>
+        <v>0.49466665991914038</v>
       </c>
       <c r="B104" s="2">
         <v>71</v>
@@ -4455,7 +4456,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62168307557943103</v>
+        <v>0.15941636267359527</v>
       </c>
       <c r="B105" s="2">
         <v>228</v>
@@ -4479,7 +4480,7 @@
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87497930803729407</v>
+        <v>0.45858966130028445</v>
       </c>
       <c r="B106" s="2">
         <v>84</v>
@@ -4503,7 +4504,7 @@
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23063467346628808</v>
+        <v>0.802152734292227</v>
       </c>
       <c r="B107" s="2">
         <v>108</v>
@@ -4527,7 +4528,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12355735116226174</v>
+        <v>0.86077523267981593</v>
       </c>
       <c r="B108" s="2">
         <v>83</v>
@@ -4548,7 +4549,7 @@
     <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1730241946521751E-2</v>
+        <v>0.98787366256398468</v>
       </c>
       <c r="B109" s="2">
         <v>37</v>
@@ -4572,7 +4573,7 @@
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96626012560112073</v>
+        <v>0.18404893161197022</v>
       </c>
       <c r="B110" s="2">
         <v>79</v>
@@ -4596,7 +4597,7 @@
     <row r="111" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76432149958621998</v>
+        <v>0.83055985155796819</v>
       </c>
       <c r="B111" s="2">
         <v>64</v>
@@ -4620,7 +4621,7 @@
     <row r="112" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39374742392211604</v>
+        <v>0.53300964621560443</v>
       </c>
       <c r="B112" s="2">
         <v>112</v>
@@ -4647,7 +4648,7 @@
     <row r="113" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54193979474446807</v>
+        <v>0.20769508312988783</v>
       </c>
       <c r="B113" s="2">
         <v>99</v>
@@ -4668,7 +4669,7 @@
     <row r="114" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72249969009356685</v>
+        <v>0.97308423255914556</v>
       </c>
       <c r="B114" s="2">
         <v>77</v>
@@ -4692,7 +4693,7 @@
     <row r="115" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31162183839895596</v>
+        <v>0.20337711963327476</v>
       </c>
       <c r="B115" s="2">
         <v>146</v>
@@ -4716,7 +4717,7 @@
     <row r="116" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7556525503007347E-2</v>
+        <v>0.27975224865893578</v>
       </c>
       <c r="B116" s="2">
         <v>58</v>
@@ -4746,7 +4747,7 @@
     <row r="117" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11344154997249811</v>
+        <v>0.46671470311048113</v>
       </c>
       <c r="B117" s="2">
         <v>141</v>
@@ -4773,7 +4774,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15577219228942774</v>
+        <v>0.67984405852079977</v>
       </c>
       <c r="B118" s="2">
         <v>122</v>
@@ -4797,7 +4798,7 @@
     <row r="119" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25678525970512656</v>
+        <v>0.44534554658683378</v>
       </c>
       <c r="B119" s="2">
         <v>28</v>
@@ -4824,7 +4825,7 @@
     <row r="120" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81098054192821023</v>
+        <v>0.44223172863399463</v>
       </c>
       <c r="B120" s="2">
         <v>50</v>
@@ -4848,7 +4849,7 @@
     <row r="121" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74710755362405878</v>
+        <v>0.22000983668569385</v>
       </c>
       <c r="B121" s="2">
         <v>4</v>
@@ -4872,7 +4873,7 @@
     <row r="122" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66264612471869366</v>
+        <v>0.8740898132186582</v>
       </c>
       <c r="B122" s="2">
         <v>41</v>
@@ -4893,7 +4894,7 @@
     <row r="123" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2632117984718666</v>
+        <v>0.65167790516145674</v>
       </c>
       <c r="B123" s="2">
         <v>230</v>
@@ -4917,7 +4918,7 @@
     <row r="124" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99445455882528266</v>
+        <v>0.43619821105677603</v>
       </c>
       <c r="B124" s="2">
         <v>242</v>
@@ -4944,7 +4945,7 @@
     <row r="125" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75291786489943846</v>
+        <v>0.10425778067014257</v>
       </c>
       <c r="B125" s="2">
         <v>163</v>
@@ -4971,7 +4972,7 @@
     <row r="126" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87060442582589803</v>
+        <v>0.41672298770337968</v>
       </c>
       <c r="B126" s="2">
         <v>248</v>
@@ -4998,7 +4999,7 @@
     <row r="127" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39685137836854134</v>
+        <v>0.53519885634736297</v>
       </c>
       <c r="B127" s="2">
         <v>207</v>
@@ -5025,7 +5026,7 @@
     <row r="128" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89881868806002163</v>
+        <v>0.27915851656264357</v>
       </c>
       <c r="B128" s="2">
         <v>211</v>
@@ -5052,7 +5053,7 @@
     <row r="129" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90391401170239338</v>
+        <v>0.93660428799475937</v>
       </c>
       <c r="B129" s="2">
         <v>94</v>
@@ -5076,7 +5077,7 @@
     <row r="130" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.27567780683394816</v>
+        <v>0.23719761539498829</v>
       </c>
       <c r="B130" s="2">
         <v>125</v>
@@ -5097,7 +5098,7 @@
     <row r="131" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6177833575316916E-2</v>
+        <v>5.2698130543602728E-2</v>
       </c>
       <c r="B131" s="2">
         <v>176</v>
@@ -5124,7 +5125,7 @@
     <row r="132" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13807738195204478</v>
+        <v>8.6644727723669268E-3</v>
       </c>
       <c r="B132" s="2">
         <v>150</v>
@@ -5151,7 +5152,7 @@
     <row r="133" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17455120953260417</v>
+        <v>0.8635571562004718</v>
       </c>
       <c r="B133" s="2">
         <v>215</v>
@@ -5178,7 +5179,7 @@
     <row r="134" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99119813510815136</v>
+        <v>0.37875438450877275</v>
       </c>
       <c r="B134" s="2">
         <v>60</v>
@@ -5205,7 +5206,7 @@
     <row r="135" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98172295811025412</v>
+        <v>0.85620514677972948</v>
       </c>
       <c r="B135" s="2">
         <v>7</v>
@@ -5232,7 +5233,7 @@
     <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39597982813633725</v>
+        <v>0.52332923383679764</v>
       </c>
       <c r="B136" s="2">
         <v>105</v>
@@ -5256,7 +5257,7 @@
     <row r="137" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8624182056499321E-2</v>
+        <v>0.22184569582640901</v>
       </c>
       <c r="B137" s="2">
         <v>118</v>
@@ -5283,7 +5284,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6781947513989488E-2</v>
+        <v>0.18483733144581638</v>
       </c>
       <c r="B138" s="2">
         <v>88</v>
@@ -5304,7 +5305,7 @@
     <row r="139" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93357784052910364</v>
+        <v>0.46195252968769329</v>
       </c>
       <c r="B139" s="2">
         <v>135</v>
@@ -5328,7 +5329,7 @@
     <row r="140" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16528311720831401</v>
+        <v>0.11321793564345017</v>
       </c>
       <c r="B140" s="2">
         <v>86</v>
@@ -5358,7 +5359,7 @@
     <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43625498535029772</v>
+        <v>0.18556979283493391</v>
       </c>
       <c r="B141" s="2">
         <v>229</v>
@@ -5385,7 +5386,7 @@
     <row r="142" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62380728117786421</v>
+        <v>0.28687100235830088</v>
       </c>
       <c r="B142" s="2">
         <v>187</v>
@@ -5409,7 +5410,7 @@
     <row r="143" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52003094626198854</v>
+        <v>0.88010500671951231</v>
       </c>
       <c r="B143" s="2">
         <v>172</v>
@@ -5433,7 +5434,7 @@
     <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24109089665361194</v>
+        <v>0.65275112173604943</v>
       </c>
       <c r="B144" s="2">
         <v>124</v>
@@ -5460,7 +5461,7 @@
     <row r="145" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48378866050460678</v>
+        <v>5.1792844871130339E-2</v>
       </c>
       <c r="B145" s="2">
         <v>200</v>
@@ -5487,7 +5488,7 @@
     <row r="146" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20049671733284191</v>
+        <v>0.68560484121881882</v>
       </c>
       <c r="B146" s="2">
         <v>179</v>
@@ -5511,7 +5512,7 @@
     <row r="147" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12115329932340135</v>
+        <v>0.82815109941660403</v>
       </c>
       <c r="B147" s="2">
         <v>165</v>
@@ -5538,7 +5539,7 @@
     <row r="148" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38276049751400865</v>
+        <v>0.23981946557481448</v>
       </c>
       <c r="B148" s="2">
         <v>195</v>
@@ -5565,7 +5566,7 @@
     <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2745655580283359E-2</v>
+        <v>8.3936647695570632E-2</v>
       </c>
       <c r="B149" s="2">
         <v>80</v>
@@ -5589,7 +5590,7 @@
     <row r="150" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25122008803596452</v>
+        <v>0.60720041513431267</v>
       </c>
       <c r="B150" s="2">
         <v>166</v>
@@ -5613,7 +5614,7 @@
     <row r="151" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13286489052255046</v>
+        <v>0.12958734377050174</v>
       </c>
       <c r="B151" s="2">
         <v>234</v>
@@ -5637,7 +5638,7 @@
     <row r="152" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63935610502436324</v>
+        <v>0.83027416898256745</v>
       </c>
       <c r="B152" s="2">
         <v>168</v>
@@ -5661,7 +5662,7 @@
     <row r="153" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47925809277835607</v>
+        <v>0.6347493278295484</v>
       </c>
       <c r="B153" s="2">
         <v>155</v>
@@ -5685,7 +5686,7 @@
     <row r="154" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15370227860039676</v>
+        <v>9.271831309637546E-2</v>
       </c>
       <c r="B154" s="2">
         <v>120</v>
@@ -5712,7 +5713,7 @@
     <row r="155" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97802993732869026</v>
+        <v>0.80875311484428913</v>
       </c>
       <c r="B155" s="2">
         <v>154</v>
@@ -5745,7 +5746,7 @@
     <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.366604306519979</v>
+        <v>0.5747452641373928</v>
       </c>
       <c r="B156" s="2">
         <v>55</v>
@@ -5769,7 +5770,7 @@
     <row r="157" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71060210272880275</v>
+        <v>0.25760871859376033</v>
       </c>
       <c r="B157" s="2">
         <v>5</v>
@@ -5796,7 +5797,7 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5619661713125147</v>
+        <v>0.96088306307600624</v>
       </c>
       <c r="B158" s="2">
         <v>126</v>
@@ -5817,7 +5818,7 @@
     <row r="159" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71469861046429384</v>
+        <v>0.47460036727665866</v>
       </c>
       <c r="B159" s="2">
         <v>250</v>
@@ -5841,7 +5842,7 @@
     <row r="160" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19486497382510848</v>
+        <v>0.55504890012356001</v>
       </c>
       <c r="B160" s="2">
         <v>213</v>
@@ -5868,7 +5869,7 @@
     <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95408606942963892</v>
+        <v>0.83383345238878592</v>
       </c>
       <c r="B161" s="2">
         <v>12</v>
@@ -5889,7 +5890,7 @@
     <row r="162" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62029259763293854</v>
+        <v>0.90768624007584209</v>
       </c>
       <c r="B162" s="2">
         <v>87</v>
@@ -5910,7 +5911,7 @@
     <row r="163" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82667745900661205</v>
+        <v>0.57503620439783898</v>
       </c>
       <c r="B163" s="2">
         <v>175</v>
@@ -5934,7 +5935,7 @@
     <row r="164" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56696343104197577</v>
+        <v>0.43635234297502556</v>
       </c>
       <c r="B164" s="2">
         <v>31</v>
@@ -5961,7 +5962,7 @@
     <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3762611786309783</v>
+        <v>1.2985567282710497E-2</v>
       </c>
       <c r="B165" s="2">
         <v>114</v>
@@ -5985,7 +5986,7 @@
     <row r="166" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81192745090118068</v>
+        <v>0.91883035397573043</v>
       </c>
       <c r="B166" s="2">
         <v>137</v>
@@ -6009,7 +6010,7 @@
     <row r="167" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79824424670558802</v>
+        <v>0.45200292249000784</v>
       </c>
       <c r="B167" s="2">
         <v>255</v>
@@ -6033,7 +6034,7 @@
     <row r="168" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14337804014503686</v>
+        <v>6.0091609340984453E-2</v>
       </c>
       <c r="B168" s="2">
         <v>142</v>
@@ -6060,7 +6061,7 @@
     <row r="169" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94846871952647838</v>
+        <v>0.88553971852311397</v>
       </c>
       <c r="B169" s="2">
         <v>241</v>
@@ -6090,7 +6091,7 @@
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25487112750666885</v>
+        <v>0.1131349898822579</v>
       </c>
       <c r="B170" s="2">
         <v>227</v>
@@ -6114,7 +6115,7 @@
     <row r="171" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47925982520244481</v>
+        <v>1.190489509921433E-2</v>
       </c>
       <c r="B171" s="2">
         <v>188</v>
@@ -6138,7 +6139,7 @@
     <row r="172" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14881954974807554</v>
+        <v>0.72044200647983703</v>
       </c>
       <c r="B172" s="2">
         <v>23</v>
@@ -6162,7 +6163,7 @@
     <row r="173" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57473519308516241</v>
+        <v>0.56928368706110521</v>
       </c>
       <c r="B173" s="2">
         <v>160</v>
@@ -6186,7 +6187,7 @@
     <row r="174" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77870944971046241</v>
+        <v>1.2135240481903287E-2</v>
       </c>
       <c r="B174" s="2">
         <v>145</v>
@@ -6210,7 +6211,7 @@
     <row r="175" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78672674448908786</v>
+        <v>0.71197709740980586</v>
       </c>
       <c r="B175" s="2">
         <v>152</v>
@@ -6240,7 +6241,7 @@
     <row r="176" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32607325680245713</v>
+        <v>0.52949268558869389</v>
       </c>
       <c r="B176" s="2">
         <v>47</v>
@@ -6261,7 +6262,7 @@
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73680781817433794</v>
+        <v>0.69382616307028899</v>
       </c>
       <c r="B177" s="2">
         <v>106</v>
@@ -6285,7 +6286,7 @@
     <row r="178" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.534243980087029</v>
+        <v>0.5601010271476573</v>
       </c>
       <c r="B178" s="2">
         <v>36</v>
@@ -6306,7 +6307,7 @@
     <row r="179" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21161376528917797</v>
+        <v>0.61457885843418925</v>
       </c>
       <c r="B179" s="2">
         <v>186</v>
@@ -6330,7 +6331,7 @@
     <row r="180" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88949970129402633</v>
+        <v>0.52617638353741036</v>
       </c>
       <c r="B180" s="2">
         <v>182</v>
@@ -6351,7 +6352,7 @@
     <row r="181" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48748725027858486</v>
+        <v>0.26985658762143772</v>
       </c>
       <c r="B181" s="2">
         <v>143</v>
@@ -6375,7 +6376,7 @@
     <row r="182" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96216225746697759</v>
+        <v>0.13857314230532924</v>
       </c>
       <c r="B182" s="2">
         <v>206</v>
@@ -6399,7 +6400,7 @@
     <row r="183" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74081106416924869</v>
+        <v>0.28764622814946406</v>
       </c>
       <c r="B183" s="2">
         <v>208</v>
@@ -6420,7 +6421,7 @@
     <row r="184" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25633224242983821</v>
+        <v>0.61838688707084344</v>
       </c>
       <c r="B184" s="2">
         <v>201</v>
@@ -6444,7 +6445,7 @@
     <row r="185" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3752392831180027</v>
+        <v>0.56988277777621299</v>
       </c>
       <c r="B185" s="2">
         <v>65</v>
@@ -6468,7 +6469,7 @@
     <row r="186" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48431376187310482</v>
+        <v>0.13756316780962818</v>
       </c>
       <c r="B186" s="2">
         <v>170</v>
@@ -6495,7 +6496,7 @@
     <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56816742107907936</v>
+        <v>0.59304743273822502</v>
       </c>
       <c r="B187" s="2">
         <v>131</v>
@@ -6519,7 +6520,7 @@
     <row r="188" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63868616316504312</v>
+        <v>0.18644431648186555</v>
       </c>
       <c r="B188" s="2">
         <v>76</v>
@@ -6540,7 +6541,7 @@
     <row r="189" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75104921483763654</v>
+        <v>0.74446756538100489</v>
       </c>
       <c r="B189" s="2">
         <v>239</v>
@@ -6567,7 +6568,7 @@
     <row r="190" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70810250017104492</v>
+        <v>0.66137520806044758</v>
       </c>
       <c r="B190" s="2">
         <v>81</v>
@@ -6591,7 +6592,7 @@
     <row r="191" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88155909900934526</v>
+        <v>0.68056635746449934</v>
       </c>
       <c r="B191" s="2">
         <v>24</v>
@@ -6621,7 +6622,7 @@
     <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38927048127839525</v>
+        <v>0.83610814181576587</v>
       </c>
       <c r="B192" s="2">
         <v>90</v>
@@ -6642,7 +6643,7 @@
     <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3357772074360954</v>
+        <v>0.94535882180011777</v>
       </c>
       <c r="B193" s="2">
         <v>34</v>
@@ -6666,7 +6667,7 @@
     <row r="194" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A255" ca="1" si="3">RAND()</f>
-        <v>0.32393623453409826</v>
+        <v>0.89532768117133554</v>
       </c>
       <c r="B194" s="2">
         <v>224</v>
@@ -6690,7 +6691,7 @@
     <row r="195" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80916992693603329</v>
+        <v>0.13026684889994811</v>
       </c>
       <c r="B195" s="2">
         <v>53</v>
@@ -6717,7 +6718,7 @@
     <row r="196" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8422696431158232</v>
+        <v>0.90652576290926312</v>
       </c>
       <c r="B196" s="2">
         <v>219</v>
@@ -6744,7 +6745,7 @@
     <row r="197" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13910256306916857</v>
+        <v>0.65301543469478729</v>
       </c>
       <c r="B197" s="2">
         <v>156</v>
@@ -6768,7 +6769,7 @@
     <row r="198" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98140773419125671</v>
+        <v>0.8539742233256129</v>
       </c>
       <c r="B198" s="2">
         <v>177</v>
@@ -6798,7 +6799,7 @@
     <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84178362088891578</v>
+        <v>0.37114205979228054</v>
       </c>
       <c r="B199" s="2">
         <v>11</v>
@@ -6819,7 +6820,7 @@
     <row r="200" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64119686949734844</v>
+        <v>0.71483360532397988</v>
       </c>
       <c r="B200" s="2">
         <v>151</v>
@@ -6843,7 +6844,7 @@
     <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87295518051768994</v>
+        <v>0.29855923062324519</v>
       </c>
       <c r="B201" s="2">
         <v>123</v>
@@ -6867,7 +6868,7 @@
     <row r="202" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32090855132700002</v>
+        <v>0.97634789657196408</v>
       </c>
       <c r="B202" s="2">
         <v>209</v>
@@ -6891,7 +6892,7 @@
     <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33675979126776878</v>
+        <v>0.21908826308005258</v>
       </c>
       <c r="B203" s="2">
         <v>133</v>
@@ -6915,7 +6916,7 @@
     <row r="204" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9609139136014696</v>
+        <v>0.16784853853511827</v>
       </c>
       <c r="B204" s="2">
         <v>119</v>
@@ -6939,7 +6940,7 @@
     <row r="205" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93776838522617234</v>
+        <v>0.24058431022421889</v>
       </c>
       <c r="B205" s="2">
         <v>159</v>
@@ -6963,7 +6964,7 @@
     <row r="206" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39189367455813073</v>
+        <v>7.2065449454859154E-2</v>
       </c>
       <c r="B206" s="2">
         <v>42</v>
@@ -6993,7 +6994,7 @@
     <row r="207" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17945943711947954</v>
+        <v>0.95694543984095348</v>
       </c>
       <c r="B207" s="2">
         <v>104</v>
@@ -7017,7 +7018,7 @@
     <row r="208" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45072023965151331</v>
+        <v>0.23486701584682357</v>
       </c>
       <c r="B208" s="2">
         <v>183</v>
@@ -7044,7 +7045,7 @@
     <row r="209" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60006655269559406</v>
+        <v>9.605962410589608E-2</v>
       </c>
       <c r="B209" s="2">
         <v>216</v>
@@ -7068,7 +7069,7 @@
     <row r="210" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49424056010079498</v>
+        <v>0.53892995896267482</v>
       </c>
       <c r="B210" s="2">
         <v>59</v>
@@ -7095,7 +7096,7 @@
     <row r="211" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6595086761982327E-2</v>
+        <v>0.89908328134325921</v>
       </c>
       <c r="B211" s="2">
         <v>75</v>
@@ -7116,7 +7117,7 @@
     <row r="212" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4036765205278372</v>
+        <v>0.71335883449874027</v>
       </c>
       <c r="B212" s="2">
         <v>48</v>
@@ -7140,7 +7141,7 @@
     <row r="213" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6813178727585214</v>
+        <v>2.1326260119775675E-2</v>
       </c>
       <c r="B213" s="2">
         <v>198</v>
@@ -7164,7 +7165,7 @@
     <row r="214" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8671220595034933</v>
+        <v>0.65668836103929573</v>
       </c>
       <c r="B214" s="2">
         <v>82</v>
@@ -7188,7 +7189,7 @@
     <row r="215" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53575273055398975</v>
+        <v>0.69447775650247734</v>
       </c>
       <c r="B215" s="2">
         <v>38</v>
@@ -7215,7 +7216,7 @@
     <row r="216" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3563447023126024</v>
+        <v>0.31634377626446253</v>
       </c>
       <c r="B216" s="2">
         <v>121</v>
@@ -7239,7 +7240,7 @@
     <row r="217" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58923625968711835</v>
+        <v>0.93057113887407061</v>
       </c>
       <c r="B217" s="2">
         <v>251</v>
@@ -7263,7 +7264,7 @@
     <row r="218" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70374080143733253</v>
+        <v>0.34682254750068964</v>
       </c>
       <c r="B218" s="2">
         <v>235</v>
@@ -7284,7 +7285,7 @@
     <row r="219" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73151268472551778</v>
+        <v>0.45380365041683834</v>
       </c>
       <c r="B219" s="2">
         <v>70</v>
@@ -7311,7 +7312,7 @@
     <row r="220" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91980864970292853</v>
+        <v>0.24113164974455148</v>
       </c>
       <c r="B220" s="2">
         <v>63</v>
@@ -7344,7 +7345,7 @@
     <row r="221" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61484051434559994</v>
+        <v>0.65920229750448078</v>
       </c>
       <c r="B221" s="2">
         <v>52</v>
@@ -7368,7 +7369,7 @@
     <row r="222" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25981960781970614</v>
+        <v>0.78100157871819553</v>
       </c>
       <c r="B222" s="2">
         <v>130</v>
@@ -7389,7 +7390,7 @@
     <row r="223" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91151957369003822</v>
+        <v>0.9341847243073893</v>
       </c>
       <c r="B223" s="2">
         <v>67</v>
@@ -7413,7 +7414,7 @@
     <row r="224" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6661511120563084E-2</v>
+        <v>0.10537861034601892</v>
       </c>
       <c r="B224" s="2">
         <v>113</v>
@@ -7434,7 +7435,7 @@
     <row r="225" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28614178606593155</v>
+        <v>0.50410115194258776</v>
       </c>
       <c r="B225" s="2">
         <v>56</v>
@@ -7461,7 +7462,7 @@
     <row r="226" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74190189136876117</v>
+        <v>0.19489747772214672</v>
       </c>
       <c r="B226" s="2">
         <v>204</v>
@@ -7491,7 +7492,7 @@
     <row r="227" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13895718206637286</v>
+        <v>0.3747028983889733</v>
       </c>
       <c r="B227" s="2">
         <v>116</v>
@@ -7515,7 +7516,7 @@
     <row r="228" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73229866790657094</v>
+        <v>0.48763997541177795</v>
       </c>
       <c r="B228" s="2">
         <v>218</v>
@@ -7545,7 +7546,7 @@
     <row r="229" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3811110481748052E-2</v>
+        <v>0.72540276604374399</v>
       </c>
       <c r="B229" s="2">
         <v>164</v>
@@ -7572,7 +7573,7 @@
     <row r="230" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8855814988146831E-3</v>
+        <v>0.85350307959103688</v>
       </c>
       <c r="B230" s="2">
         <v>192</v>
@@ -7596,7 +7597,7 @@
     <row r="231" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64882083192241558</v>
+        <v>0.82777385212928634</v>
       </c>
       <c r="B231" s="2">
         <v>15</v>
@@ -7629,7 +7630,7 @@
     <row r="232" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53000436051449906</v>
+        <v>0.50611572835128504</v>
       </c>
       <c r="B232" s="2">
         <v>132</v>
@@ -7653,7 +7654,7 @@
     <row r="233" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67509071046834868</v>
+        <v>6.3999860440001832E-2</v>
       </c>
       <c r="B233" s="2">
         <v>231</v>
@@ -7680,7 +7681,7 @@
     <row r="234" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7384660062205404E-2</v>
+        <v>1.8705529514830288E-2</v>
       </c>
       <c r="B234" s="2">
         <v>62</v>
@@ -7701,7 +7702,7 @@
     <row r="235" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26738621703626386</v>
+        <v>0.16681678090037144</v>
       </c>
       <c r="B235" s="2">
         <v>92</v>
@@ -7725,7 +7726,7 @@
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89419996825379799</v>
+        <v>0.22485781809050331</v>
       </c>
       <c r="B236" s="2">
         <v>127</v>
@@ -7749,7 +7750,7 @@
     <row r="237" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38403544933100142</v>
+        <v>0.63398135603918371</v>
       </c>
       <c r="B237" s="2">
         <v>66</v>
@@ -7776,7 +7777,7 @@
     <row r="238" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17061896979594837</v>
+        <v>0.74827824135592536</v>
       </c>
       <c r="B238" s="2">
         <v>189</v>
@@ -7803,7 +7804,7 @@
     <row r="239" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94718104747587695</v>
+        <v>0.47694510877705731</v>
       </c>
       <c r="B239" s="2">
         <v>178</v>
@@ -7827,7 +7828,7 @@
     <row r="240" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79111208906056485</v>
+        <v>0.88797923554361868</v>
       </c>
       <c r="B240" s="2">
         <v>129</v>
@@ -7857,7 +7858,7 @@
     <row r="241" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94180882510090191</v>
+        <v>0.90256207368003305</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
@@ -7884,7 +7885,7 @@
     <row r="242" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84271158014305336</v>
+        <v>6.9777835994282889E-2</v>
       </c>
       <c r="B242" s="2">
         <v>171</v>
@@ -7914,7 +7915,7 @@
     <row r="243" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31438514443410293</v>
+        <v>0.75622284154694697</v>
       </c>
       <c r="B243" s="2">
         <v>20</v>
@@ -7941,7 +7942,7 @@
     <row r="244" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9476771455704146</v>
+        <v>0.74111414434269984</v>
       </c>
       <c r="B244" s="2">
         <v>6</v>
@@ -7974,7 +7975,7 @@
     <row r="245" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95055727097611464</v>
+        <v>0.70148865478058631</v>
       </c>
       <c r="B245" s="2">
         <v>246</v>
@@ -7998,7 +7999,7 @@
     <row r="246" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67260849002129774</v>
+        <v>0.48469066730048094</v>
       </c>
       <c r="B246" s="2">
         <v>253</v>
@@ -8022,7 +8023,7 @@
     <row r="247" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34844660585295351</v>
+        <v>4.0425413458703541E-2</v>
       </c>
       <c r="B247" s="2">
         <v>27</v>
@@ -8046,7 +8047,7 @@
     <row r="248" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33463167680599692</v>
+        <v>0.87959762068461178</v>
       </c>
       <c r="B248" s="2">
         <v>21</v>
@@ -8076,7 +8077,7 @@
     <row r="249" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27695346214969307</v>
+        <v>0.10251045607002751</v>
       </c>
       <c r="B249" s="2">
         <v>252</v>
@@ -8100,7 +8101,7 @@
     <row r="250" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9976049886371139E-2</v>
+        <v>0.52174900744699249</v>
       </c>
       <c r="B250" s="2">
         <v>139</v>
@@ -8121,7 +8122,7 @@
     <row r="251" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40357646648666667</v>
+        <v>0.10646226709846718</v>
       </c>
       <c r="B251" s="2">
         <v>249</v>
@@ -8145,7 +8146,7 @@
     <row r="252" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27695378545373006</v>
+        <v>0.2961513449178248</v>
       </c>
       <c r="B252" s="2">
         <v>214</v>
@@ -8172,7 +8173,7 @@
     <row r="253" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61175353972624091</v>
+        <v>0.34870666543110074</v>
       </c>
       <c r="B253" s="2">
         <v>157</v>
@@ -8196,7 +8197,7 @@
     <row r="254" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6279103977765973</v>
+        <v>0.77367291556882478</v>
       </c>
       <c r="B254" s="2">
         <v>134</v>
@@ -8220,7 +8221,7 @@
     <row r="255" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23072648720988487</v>
+        <v>0.63838551047584891</v>
       </c>
       <c r="B255" s="2">
         <v>45</v>
@@ -8646,7 +8647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+    <sheetView topLeftCell="A242" workbookViewId="0">
       <selection activeCell="A320" sqref="A257:XFD320"/>
     </sheetView>
   </sheetViews>
